--- a/nfmInventory.xlsx
+++ b/nfmInventory.xlsx
@@ -1057,10 +1057,10 @@
     <t>LRG PILLOWTOP OTTOMAN</t>
   </si>
   <si>
+    <t>OS</t>
+  </si>
+  <si>
     <t>AV</t>
-  </si>
-  <si>
-    <t>OS</t>
   </si>
   <si>
     <t>DI</t>
@@ -1485,7 +1485,7 @@
         <v>347</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>350</v>
@@ -1493,6 +1493,9 @@
       <c r="J2">
         <v>62.95</v>
       </c>
+      <c r="K2">
+        <v>20220402</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -1511,10 +1514,10 @@
         <v>235</v>
       </c>
       <c r="G3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H3">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -1540,10 +1543,10 @@
         <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H4">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
         <v>350</v>
@@ -1551,6 +1554,9 @@
       <c r="J4">
         <v>85.67</v>
       </c>
+      <c r="K4">
+        <v>20220416</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -1569,7 +1575,7 @@
         <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1601,10 +1607,10 @@
         <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>350</v>
@@ -1633,7 +1639,7 @@
         <v>348</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
         <v>350</v>
@@ -1662,7 +1668,7 @@
         <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -1694,7 +1700,7 @@
         <v>347</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>350</v>
@@ -1702,6 +1708,9 @@
       <c r="J9">
         <v>45.78</v>
       </c>
+      <c r="K9">
+        <v>20220418</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -1723,7 +1732,7 @@
         <v>348</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>350</v>
@@ -1752,7 +1761,7 @@
         <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -1784,7 +1793,7 @@
         <v>348</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
         <v>350</v>
@@ -1816,7 +1825,7 @@
         <v>347</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>350</v>
@@ -1824,6 +1833,9 @@
       <c r="J13">
         <v>88.13</v>
       </c>
+      <c r="K13">
+        <v>20220416</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -1842,7 +1854,7 @@
         <v>242</v>
       </c>
       <c r="G14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1874,7 +1886,7 @@
         <v>242</v>
       </c>
       <c r="G15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H15">
         <v>20</v>
@@ -1903,7 +1915,7 @@
         <v>243</v>
       </c>
       <c r="G16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H16">
         <v>20</v>
@@ -1932,7 +1944,7 @@
         <v>243</v>
       </c>
       <c r="G17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1964,10 +1976,10 @@
         <v>243</v>
       </c>
       <c r="G18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
         <v>350</v>
@@ -1996,7 +2008,7 @@
         <v>347</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>350</v>
@@ -2004,6 +2016,9 @@
       <c r="J19">
         <v>122.38</v>
       </c>
+      <c r="K19">
+        <v>20220416</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
@@ -2022,10 +2037,10 @@
         <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
         <v>350</v>
@@ -2051,7 +2066,7 @@
         <v>246</v>
       </c>
       <c r="G21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2083,7 +2098,7 @@
         <v>247</v>
       </c>
       <c r="G22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2115,7 +2130,7 @@
         <v>248</v>
       </c>
       <c r="G23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2147,10 +2162,10 @@
         <v>249</v>
       </c>
       <c r="G24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
         <v>350</v>
@@ -2176,10 +2191,10 @@
         <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
         <v>350</v>
@@ -2205,10 +2220,10 @@
         <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
         <v>350</v>
@@ -2234,10 +2249,10 @@
         <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H27">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
         <v>350</v>
@@ -2263,7 +2278,7 @@
         <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H28">
         <v>20</v>
@@ -2295,7 +2310,7 @@
         <v>347</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>350</v>
@@ -2303,6 +2318,9 @@
       <c r="J29">
         <v>121</v>
       </c>
+      <c r="K29">
+        <v>20220423</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
@@ -2324,7 +2342,7 @@
         <v>347</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>350</v>
@@ -2332,6 +2350,9 @@
       <c r="J30">
         <v>131.1</v>
       </c>
+      <c r="K30">
+        <v>20220416</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
@@ -2353,7 +2374,7 @@
         <v>348</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
         <v>350</v>
@@ -2382,10 +2403,10 @@
         <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H32">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I32" t="s">
         <v>350</v>
@@ -2411,10 +2432,10 @@
         <v>254</v>
       </c>
       <c r="G33" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H33">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
         <v>350</v>
@@ -2440,7 +2461,7 @@
         <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H34">
         <v>20</v>
@@ -2469,10 +2490,10 @@
         <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H35">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
         <v>350</v>
@@ -2498,7 +2519,7 @@
         <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2530,10 +2551,10 @@
         <v>255</v>
       </c>
       <c r="G37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
         <v>350</v>
@@ -2562,7 +2583,7 @@
         <v>348</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
         <v>350</v>
@@ -2591,7 +2612,7 @@
         <v>252</v>
       </c>
       <c r="G39" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H39">
         <v>20</v>
@@ -2623,7 +2644,7 @@
         <v>347</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
         <v>350</v>
@@ -2631,6 +2652,9 @@
       <c r="J40">
         <v>57</v>
       </c>
+      <c r="K40">
+        <v>20220408</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
@@ -2649,10 +2673,10 @@
         <v>258</v>
       </c>
       <c r="G41" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H41">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s">
         <v>350</v>
@@ -2681,7 +2705,7 @@
         <v>348</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
         <v>350</v>
@@ -2713,7 +2737,7 @@
         <v>348</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I43" t="s">
         <v>350</v>
@@ -2742,10 +2766,10 @@
         <v>260</v>
       </c>
       <c r="G44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="I44" t="s">
         <v>350</v>
@@ -2771,10 +2795,10 @@
         <v>261</v>
       </c>
       <c r="G45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H45">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
         <v>350</v>
@@ -2803,7 +2827,7 @@
         <v>347</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>350</v>
@@ -2811,6 +2835,9 @@
       <c r="J46">
         <v>107.73</v>
       </c>
+      <c r="K46">
+        <v>20220402</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
@@ -2829,7 +2856,7 @@
         <v>263</v>
       </c>
       <c r="G47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H47">
         <v>10</v>
@@ -2858,10 +2885,10 @@
         <v>264</v>
       </c>
       <c r="G48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H48">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I48" t="s">
         <v>350</v>
@@ -2887,7 +2914,7 @@
         <v>265</v>
       </c>
       <c r="G49" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H49">
         <v>10</v>
@@ -2916,10 +2943,10 @@
         <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H50">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="I50" t="s">
         <v>350</v>
@@ -2945,10 +2972,10 @@
         <v>267</v>
       </c>
       <c r="G51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H51">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I51" t="s">
         <v>350</v>
@@ -2977,7 +3004,7 @@
         <v>347</v>
       </c>
       <c r="H52">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>350</v>
@@ -2985,6 +3012,9 @@
       <c r="J52">
         <v>111</v>
       </c>
+      <c r="K52">
+        <v>20220416</v>
+      </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
@@ -3003,7 +3033,7 @@
         <v>268</v>
       </c>
       <c r="G53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3035,7 +3065,7 @@
         <v>269</v>
       </c>
       <c r="G54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3067,7 +3097,7 @@
         <v>270</v>
       </c>
       <c r="G55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3102,7 +3132,7 @@
         <v>348</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
         <v>350</v>
@@ -3131,7 +3161,7 @@
         <v>272</v>
       </c>
       <c r="G57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H57">
         <v>20</v>
@@ -3160,7 +3190,7 @@
         <v>273</v>
       </c>
       <c r="G58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3192,7 +3222,7 @@
         <v>274</v>
       </c>
       <c r="G59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H59">
         <v>20</v>
@@ -3221,10 +3251,10 @@
         <v>250</v>
       </c>
       <c r="G60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H60">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
         <v>350</v>
@@ -3250,10 +3280,10 @@
         <v>268</v>
       </c>
       <c r="G61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H61">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
         <v>350</v>
@@ -3279,7 +3309,7 @@
         <v>275</v>
       </c>
       <c r="G62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3311,7 +3341,7 @@
         <v>276</v>
       </c>
       <c r="G63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3343,7 +3373,7 @@
         <v>242</v>
       </c>
       <c r="G64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3375,10 +3405,10 @@
         <v>242</v>
       </c>
       <c r="G65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H65">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I65" t="s">
         <v>350</v>
@@ -3404,10 +3434,10 @@
         <v>277</v>
       </c>
       <c r="G66" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="I66" t="s">
         <v>350</v>
@@ -3436,10 +3466,10 @@
         <v>278</v>
       </c>
       <c r="G67" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H67">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I67" t="s">
         <v>350</v>
@@ -3465,7 +3495,7 @@
         <v>278</v>
       </c>
       <c r="G68" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H68">
         <v>20</v>
@@ -3494,7 +3524,7 @@
         <v>278</v>
       </c>
       <c r="G69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H69">
         <v>20</v>
@@ -3526,7 +3556,7 @@
         <v>348</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I70" t="s">
         <v>350</v>
@@ -3558,7 +3588,7 @@
         <v>347</v>
       </c>
       <c r="H71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
         <v>350</v>
@@ -3566,6 +3596,9 @@
       <c r="J71">
         <v>119.7</v>
       </c>
+      <c r="K71">
+        <v>20220408</v>
+      </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
@@ -3587,7 +3620,7 @@
         <v>348</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
         <v>350</v>
@@ -3619,7 +3652,7 @@
         <v>348</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I73" t="s">
         <v>350</v>
@@ -3648,7 +3681,7 @@
         <v>242</v>
       </c>
       <c r="G74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3680,7 +3713,7 @@
         <v>242</v>
       </c>
       <c r="G75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3715,7 +3748,7 @@
         <v>348</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
         <v>350</v>
@@ -3747,7 +3780,7 @@
         <v>348</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I77" t="s">
         <v>350</v>
@@ -3776,10 +3809,10 @@
         <v>280</v>
       </c>
       <c r="G78" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H78">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I78" t="s">
         <v>350</v>
@@ -3805,7 +3838,7 @@
         <v>281</v>
       </c>
       <c r="G79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3837,7 +3870,7 @@
         <v>282</v>
       </c>
       <c r="G80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3869,7 +3902,7 @@
         <v>282</v>
       </c>
       <c r="G81" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3901,7 +3934,7 @@
         <v>282</v>
       </c>
       <c r="G82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3936,7 +3969,7 @@
         <v>347</v>
       </c>
       <c r="H83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
         <v>350</v>
@@ -3944,6 +3977,9 @@
       <c r="J83">
         <v>58.28</v>
       </c>
+      <c r="K83">
+        <v>20220418</v>
+      </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
@@ -3962,10 +3998,10 @@
         <v>284</v>
       </c>
       <c r="G84" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H84">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I84" t="s">
         <v>350</v>
@@ -3991,10 +4027,10 @@
         <v>285</v>
       </c>
       <c r="G85" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H85">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I85" t="s">
         <v>350</v>
@@ -4020,7 +4056,7 @@
         <v>286</v>
       </c>
       <c r="G86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4055,7 +4091,7 @@
         <v>348</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I87" t="s">
         <v>350</v>
@@ -4087,7 +4123,7 @@
         <v>347</v>
       </c>
       <c r="H88">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
         <v>350</v>
@@ -4095,6 +4131,9 @@
       <c r="J88">
         <v>57.23</v>
       </c>
+      <c r="K88">
+        <v>20220418</v>
+      </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
@@ -4113,7 +4152,7 @@
         <v>282</v>
       </c>
       <c r="G89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4145,7 +4184,7 @@
         <v>282</v>
       </c>
       <c r="G90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4177,10 +4216,10 @@
         <v>282</v>
       </c>
       <c r="G91" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I91" t="s">
         <v>350</v>
@@ -4206,10 +4245,10 @@
         <v>282</v>
       </c>
       <c r="G92" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I92" t="s">
         <v>350</v>
@@ -4235,7 +4274,7 @@
         <v>282</v>
       </c>
       <c r="G93" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4267,7 +4306,7 @@
         <v>282</v>
       </c>
       <c r="G94" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H94">
         <v>20</v>
@@ -4299,7 +4338,7 @@
         <v>347</v>
       </c>
       <c r="H95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
         <v>350</v>
@@ -4328,7 +4367,7 @@
         <v>282</v>
       </c>
       <c r="G96" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4360,7 +4399,7 @@
         <v>282</v>
       </c>
       <c r="G97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4392,7 +4431,7 @@
         <v>282</v>
       </c>
       <c r="G98" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H98">
         <v>10</v>
@@ -4421,10 +4460,10 @@
         <v>288</v>
       </c>
       <c r="G99" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H99">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I99" t="s">
         <v>350</v>
@@ -4450,10 +4489,10 @@
         <v>242</v>
       </c>
       <c r="G100" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H100">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I100" t="s">
         <v>350</v>
@@ -4461,6 +4500,9 @@
       <c r="J100">
         <v>137.66</v>
       </c>
+      <c r="K100">
+        <v>20220402</v>
+      </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
@@ -4479,7 +4521,7 @@
         <v>242</v>
       </c>
       <c r="G101" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4514,7 +4556,7 @@
         <v>348</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I102" t="s">
         <v>350</v>
@@ -4543,10 +4585,10 @@
         <v>242</v>
       </c>
       <c r="G103" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H103">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I103" t="s">
         <v>350</v>
@@ -4572,7 +4614,7 @@
         <v>242</v>
       </c>
       <c r="G104" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4604,7 +4646,7 @@
         <v>289</v>
       </c>
       <c r="G105" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H105">
         <v>10</v>
@@ -4633,7 +4675,7 @@
         <v>290</v>
       </c>
       <c r="G106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4665,10 +4707,10 @@
         <v>291</v>
       </c>
       <c r="G107" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H107">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="I107" t="s">
         <v>350</v>
@@ -4697,7 +4739,7 @@
         <v>348</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I108" t="s">
         <v>350</v>
@@ -4726,10 +4768,10 @@
         <v>291</v>
       </c>
       <c r="G109" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H109">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I109" t="s">
         <v>350</v>
@@ -4755,7 +4797,7 @@
         <v>291</v>
       </c>
       <c r="G110" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4787,10 +4829,10 @@
         <v>237</v>
       </c>
       <c r="G111" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H111">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I111" t="s">
         <v>350</v>
@@ -4819,7 +4861,7 @@
         <v>347</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I112" t="s">
         <v>350</v>
@@ -4827,6 +4869,9 @@
       <c r="J112">
         <v>68.76000000000001</v>
       </c>
+      <c r="K112">
+        <v>20220408</v>
+      </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
@@ -4845,10 +4890,10 @@
         <v>242</v>
       </c>
       <c r="G113" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I113" t="s">
         <v>350</v>
@@ -4874,10 +4919,10 @@
         <v>242</v>
       </c>
       <c r="G114" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H114">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
         <v>350</v>
@@ -4903,7 +4948,7 @@
         <v>242</v>
       </c>
       <c r="G115" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H115">
         <v>20</v>
@@ -4932,7 +4977,7 @@
         <v>242</v>
       </c>
       <c r="G116" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H116">
         <v>20</v>
@@ -4961,7 +5006,7 @@
         <v>242</v>
       </c>
       <c r="G117" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -4993,7 +5038,7 @@
         <v>293</v>
       </c>
       <c r="G118" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5025,7 +5070,7 @@
         <v>242</v>
       </c>
       <c r="G119" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5060,7 +5105,7 @@
         <v>348</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I120" t="s">
         <v>350</v>
@@ -5089,10 +5134,10 @@
         <v>242</v>
       </c>
       <c r="G121" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H121">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I121" t="s">
         <v>350</v>
@@ -5121,7 +5166,7 @@
         <v>347</v>
       </c>
       <c r="H122">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
         <v>350</v>
@@ -5129,6 +5174,9 @@
       <c r="J122">
         <v>136.8</v>
       </c>
+      <c r="K122">
+        <v>20220418</v>
+      </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
@@ -5147,10 +5195,10 @@
         <v>242</v>
       </c>
       <c r="G123" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H123">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I123" t="s">
         <v>350</v>
@@ -5176,7 +5224,7 @@
         <v>294</v>
       </c>
       <c r="G124" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5208,7 +5256,7 @@
         <v>295</v>
       </c>
       <c r="G125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -5240,7 +5288,7 @@
         <v>296</v>
       </c>
       <c r="G126" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5275,7 +5323,7 @@
         <v>347</v>
       </c>
       <c r="H127">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
         <v>350</v>
@@ -5283,6 +5331,9 @@
       <c r="J127">
         <v>54.94</v>
       </c>
+      <c r="K127">
+        <v>20220418</v>
+      </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
@@ -5301,7 +5352,7 @@
         <v>298</v>
       </c>
       <c r="G128" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -5333,7 +5384,7 @@
         <v>299</v>
       </c>
       <c r="G129" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -5368,7 +5419,7 @@
         <v>347</v>
       </c>
       <c r="H130">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
         <v>350</v>
@@ -5376,6 +5427,9 @@
       <c r="J130">
         <v>114.45</v>
       </c>
+      <c r="K130">
+        <v>20220408</v>
+      </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
@@ -5394,10 +5448,10 @@
         <v>301</v>
       </c>
       <c r="G131" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H131">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I131" t="s">
         <v>350</v>
@@ -5423,7 +5477,7 @@
         <v>300</v>
       </c>
       <c r="G132" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H132">
         <v>20</v>
@@ -5452,10 +5506,10 @@
         <v>301</v>
       </c>
       <c r="G133" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H133">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I133" t="s">
         <v>350</v>
@@ -5484,10 +5538,10 @@
         <v>302</v>
       </c>
       <c r="G134" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H134">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I134" t="s">
         <v>350</v>
@@ -5513,10 +5567,10 @@
         <v>303</v>
       </c>
       <c r="G135" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H135">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I135" t="s">
         <v>350</v>
@@ -5542,7 +5596,7 @@
         <v>304</v>
       </c>
       <c r="G136" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -5574,10 +5628,10 @@
         <v>305</v>
       </c>
       <c r="G137" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H137">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I137" t="s">
         <v>350</v>
@@ -5606,7 +5660,7 @@
         <v>302</v>
       </c>
       <c r="G138" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H138">
         <v>10</v>
@@ -5638,7 +5692,7 @@
         <v>348</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I139" t="s">
         <v>350</v>
@@ -5667,10 +5721,10 @@
         <v>307</v>
       </c>
       <c r="G140" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H140">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="I140" t="s">
         <v>350</v>
@@ -5699,7 +5753,7 @@
         <v>347</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I141" t="s">
         <v>350</v>
@@ -5707,6 +5761,9 @@
       <c r="J141">
         <v>149.63</v>
       </c>
+      <c r="K141">
+        <v>20220423</v>
+      </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
@@ -5725,7 +5782,7 @@
         <v>250</v>
       </c>
       <c r="G142" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H142">
         <v>20</v>
@@ -5754,7 +5811,7 @@
         <v>308</v>
       </c>
       <c r="G143" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -5789,7 +5846,7 @@
         <v>347</v>
       </c>
       <c r="H144">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
         <v>350</v>
@@ -5797,6 +5854,9 @@
       <c r="J144">
         <v>40.06</v>
       </c>
+      <c r="K144">
+        <v>20220418</v>
+      </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
@@ -5815,10 +5875,10 @@
         <v>300</v>
       </c>
       <c r="G145" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H145">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I145" t="s">
         <v>350</v>
@@ -5844,7 +5904,7 @@
         <v>243</v>
       </c>
       <c r="G146" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H146">
         <v>10</v>
@@ -5876,7 +5936,7 @@
         <v>348</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I147" t="s">
         <v>350</v>
@@ -5905,10 +5965,10 @@
         <v>303</v>
       </c>
       <c r="G148" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H148">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I148" t="s">
         <v>350</v>
@@ -5934,7 +5994,7 @@
         <v>303</v>
       </c>
       <c r="G149" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -5966,10 +6026,10 @@
         <v>310</v>
       </c>
       <c r="G150" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H150">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I150" t="s">
         <v>350</v>
@@ -5995,10 +6055,10 @@
         <v>311</v>
       </c>
       <c r="G151" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H151">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I151" t="s">
         <v>350</v>
@@ -6024,7 +6084,7 @@
         <v>243</v>
       </c>
       <c r="G152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -6059,7 +6119,7 @@
         <v>348</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I153" t="s">
         <v>350</v>
@@ -6091,7 +6151,7 @@
         <v>347</v>
       </c>
       <c r="H154">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
         <v>350</v>
@@ -6120,7 +6180,7 @@
         <v>313</v>
       </c>
       <c r="G155" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -6152,7 +6212,7 @@
         <v>314</v>
       </c>
       <c r="G156" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H156">
         <v>10</v>
@@ -6181,7 +6241,7 @@
         <v>243</v>
       </c>
       <c r="G157" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -6216,7 +6276,7 @@
         <v>348</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I158" t="s">
         <v>350</v>
@@ -6245,7 +6305,7 @@
         <v>243</v>
       </c>
       <c r="G159" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -6277,10 +6337,10 @@
         <v>315</v>
       </c>
       <c r="G160" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H160">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I160" t="s">
         <v>350</v>
@@ -6306,10 +6366,10 @@
         <v>315</v>
       </c>
       <c r="G161" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H161">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I161" t="s">
         <v>350</v>
@@ -6335,7 +6395,7 @@
         <v>243</v>
       </c>
       <c r="G162" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -6370,7 +6430,7 @@
         <v>348</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I163" t="s">
         <v>350</v>
@@ -6399,7 +6459,7 @@
         <v>250</v>
       </c>
       <c r="G164" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -6434,7 +6494,7 @@
         <v>347</v>
       </c>
       <c r="H165">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
         <v>350</v>
@@ -6442,6 +6502,9 @@
       <c r="J165">
         <v>128.18</v>
       </c>
+      <c r="K165">
+        <v>20220416</v>
+      </c>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
@@ -6460,10 +6523,10 @@
         <v>250</v>
       </c>
       <c r="G166" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H166">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I166" t="s">
         <v>350</v>
@@ -6489,7 +6552,7 @@
         <v>250</v>
       </c>
       <c r="G167" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -6521,7 +6584,7 @@
         <v>250</v>
       </c>
       <c r="G168" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -6553,7 +6616,7 @@
         <v>316</v>
       </c>
       <c r="G169" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -6585,7 +6648,7 @@
         <v>317</v>
       </c>
       <c r="G170" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -6617,7 +6680,7 @@
         <v>318</v>
       </c>
       <c r="G171" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -6652,7 +6715,7 @@
         <v>347</v>
       </c>
       <c r="H172">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I172" t="s">
         <v>350</v>
@@ -6660,6 +6723,9 @@
       <c r="J172">
         <v>114</v>
       </c>
+      <c r="K172">
+        <v>20220416</v>
+      </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
@@ -6678,7 +6744,7 @@
         <v>242</v>
       </c>
       <c r="G173" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -6710,7 +6776,7 @@
         <v>242</v>
       </c>
       <c r="G174" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -6742,7 +6808,7 @@
         <v>300</v>
       </c>
       <c r="G175" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -6777,7 +6843,7 @@
         <v>347</v>
       </c>
       <c r="H176">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I176" t="s">
         <v>350</v>
@@ -6785,6 +6851,9 @@
       <c r="J176">
         <v>62.68</v>
       </c>
+      <c r="K176">
+        <v>20220408</v>
+      </c>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
@@ -6806,7 +6875,7 @@
         <v>348</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I177" t="s">
         <v>350</v>
@@ -6838,7 +6907,7 @@
         <v>347</v>
       </c>
       <c r="H178">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I178" t="s">
         <v>350</v>
@@ -6846,6 +6915,9 @@
       <c r="J178">
         <v>47.69</v>
       </c>
+      <c r="K178">
+        <v>20220423</v>
+      </c>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
@@ -6864,10 +6936,10 @@
         <v>321</v>
       </c>
       <c r="G179" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H179">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I179" t="s">
         <v>350</v>
@@ -6896,7 +6968,7 @@
         <v>320</v>
       </c>
       <c r="G180" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H180">
         <v>20</v>
@@ -6925,7 +6997,7 @@
         <v>242</v>
       </c>
       <c r="G181" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -6957,10 +7029,10 @@
         <v>316</v>
       </c>
       <c r="G182" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H182">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I182" t="s">
         <v>350</v>
@@ -6986,10 +7058,10 @@
         <v>316</v>
       </c>
       <c r="G183" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H183">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I183" t="s">
         <v>350</v>
@@ -7018,7 +7090,7 @@
         <v>348</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I184" t="s">
         <v>350</v>
@@ -7050,7 +7122,7 @@
         <v>348</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I185" t="s">
         <v>350</v>
@@ -7079,7 +7151,7 @@
         <v>316</v>
       </c>
       <c r="G186" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -7111,7 +7183,7 @@
         <v>250</v>
       </c>
       <c r="G187" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H187">
         <v>20</v>
@@ -7140,7 +7212,7 @@
         <v>250</v>
       </c>
       <c r="G188" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -7172,10 +7244,10 @@
         <v>320</v>
       </c>
       <c r="G189" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H189">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I189" t="s">
         <v>350</v>
@@ -7201,7 +7273,7 @@
         <v>242</v>
       </c>
       <c r="G190" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H190">
         <v>20</v>
@@ -7233,7 +7305,7 @@
         <v>348</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I191" t="s">
         <v>350</v>
@@ -7262,7 +7334,7 @@
         <v>243</v>
       </c>
       <c r="G192" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H192">
         <v>10</v>
@@ -7294,7 +7366,7 @@
         <v>347</v>
       </c>
       <c r="H193">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I193" t="s">
         <v>350</v>
@@ -7302,6 +7374,9 @@
       <c r="J193">
         <v>128.62</v>
       </c>
+      <c r="K193">
+        <v>20220408</v>
+      </c>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
@@ -7320,7 +7395,7 @@
         <v>322</v>
       </c>
       <c r="G194" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -7352,7 +7427,7 @@
         <v>323</v>
       </c>
       <c r="G195" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H195">
         <v>10</v>
@@ -7381,7 +7456,7 @@
         <v>324</v>
       </c>
       <c r="G196" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -7413,7 +7488,7 @@
         <v>325</v>
       </c>
       <c r="G197" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -7445,7 +7520,7 @@
         <v>324</v>
       </c>
       <c r="G198" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -7477,7 +7552,7 @@
         <v>326</v>
       </c>
       <c r="G199" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -7512,7 +7587,7 @@
         <v>347</v>
       </c>
       <c r="H200">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I200" t="s">
         <v>350</v>
@@ -7520,6 +7595,9 @@
       <c r="J200">
         <v>65</v>
       </c>
+      <c r="K200">
+        <v>20220408</v>
+      </c>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" t="s">
@@ -7538,7 +7616,7 @@
         <v>328</v>
       </c>
       <c r="G201" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -7573,7 +7651,7 @@
         <v>347</v>
       </c>
       <c r="H202">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I202" t="s">
         <v>350</v>
@@ -7581,6 +7659,9 @@
       <c r="J202">
         <v>105</v>
       </c>
+      <c r="K202">
+        <v>20220402</v>
+      </c>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" t="s">
@@ -7599,10 +7680,10 @@
         <v>330</v>
       </c>
       <c r="G203" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H203">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I203" t="s">
         <v>350</v>
@@ -7628,7 +7709,7 @@
         <v>290</v>
       </c>
       <c r="G204" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -7660,10 +7741,10 @@
         <v>331</v>
       </c>
       <c r="G205" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H205">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I205" t="s">
         <v>350</v>
@@ -7689,7 +7770,7 @@
         <v>332</v>
       </c>
       <c r="G206" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H206">
         <v>20</v>
@@ -7721,7 +7802,7 @@
         <v>348</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I207" t="s">
         <v>350</v>
@@ -7750,7 +7831,7 @@
         <v>334</v>
       </c>
       <c r="G208" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -7782,7 +7863,7 @@
         <v>335</v>
       </c>
       <c r="G209" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -7814,7 +7895,7 @@
         <v>243</v>
       </c>
       <c r="G210" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H210">
         <v>20</v>
@@ -7843,7 +7924,7 @@
         <v>290</v>
       </c>
       <c r="G211" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -7875,7 +7956,7 @@
         <v>336</v>
       </c>
       <c r="G212" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -7910,7 +7991,7 @@
         <v>347</v>
       </c>
       <c r="H213">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I213" t="s">
         <v>350</v>
@@ -7918,6 +7999,9 @@
       <c r="J213">
         <v>64.09999999999999</v>
       </c>
+      <c r="K213">
+        <v>20220416</v>
+      </c>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" t="s">
@@ -7936,10 +8020,10 @@
         <v>338</v>
       </c>
       <c r="G214" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H214">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I214" t="s">
         <v>350</v>
@@ -7968,7 +8052,7 @@
         <v>347</v>
       </c>
       <c r="H215">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I215" t="s">
         <v>350</v>
@@ -7976,6 +8060,9 @@
       <c r="J215">
         <v>64.09999999999999</v>
       </c>
+      <c r="K215">
+        <v>20220418</v>
+      </c>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" t="s">
@@ -7997,7 +8084,7 @@
         <v>348</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I216" t="s">
         <v>350</v>

--- a/nfmInventory.xlsx
+++ b/nfmInventory.xlsx
@@ -1517,7 +1517,7 @@
         <v>348</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -1546,7 +1546,7 @@
         <v>348</v>
       </c>
       <c r="H4">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
         <v>350</v>
@@ -1668,10 +1668,10 @@
         <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>350</v>
@@ -1679,6 +1679,9 @@
       <c r="J8">
         <v>155.61</v>
       </c>
+      <c r="K8">
+        <v>20220429</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -1790,10 +1793,10 @@
         <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>350</v>
@@ -1979,7 +1982,7 @@
         <v>348</v>
       </c>
       <c r="H18">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
         <v>350</v>
@@ -2040,7 +2043,7 @@
         <v>348</v>
       </c>
       <c r="H20">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s">
         <v>350</v>
@@ -2165,7 +2168,7 @@
         <v>348</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
         <v>350</v>
@@ -2194,7 +2197,7 @@
         <v>348</v>
       </c>
       <c r="H25">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
         <v>350</v>
@@ -2252,7 +2255,7 @@
         <v>348</v>
       </c>
       <c r="H27">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
         <v>350</v>
@@ -2406,7 +2409,7 @@
         <v>348</v>
       </c>
       <c r="H32">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I32" t="s">
         <v>350</v>
@@ -2435,7 +2438,7 @@
         <v>348</v>
       </c>
       <c r="H33">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
         <v>350</v>
@@ -2493,7 +2496,7 @@
         <v>348</v>
       </c>
       <c r="H35">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s">
         <v>350</v>
@@ -2583,7 +2586,7 @@
         <v>348</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
         <v>350</v>
@@ -2615,7 +2618,7 @@
         <v>348</v>
       </c>
       <c r="H39">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
         <v>350</v>
@@ -2676,7 +2679,7 @@
         <v>348</v>
       </c>
       <c r="H41">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I41" t="s">
         <v>350</v>
@@ -2705,7 +2708,7 @@
         <v>348</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s">
         <v>350</v>
@@ -2737,7 +2740,7 @@
         <v>348</v>
       </c>
       <c r="H43">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
         <v>350</v>
@@ -2769,7 +2772,7 @@
         <v>348</v>
       </c>
       <c r="H44">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
         <v>350</v>
@@ -2798,7 +2801,7 @@
         <v>348</v>
       </c>
       <c r="H45">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s">
         <v>350</v>
@@ -2856,10 +2859,10 @@
         <v>263</v>
       </c>
       <c r="G47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
         <v>350</v>
@@ -2867,6 +2870,9 @@
       <c r="J47">
         <v>149.63</v>
       </c>
+      <c r="K47">
+        <v>20220429</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
@@ -2888,7 +2894,7 @@
         <v>348</v>
       </c>
       <c r="H48">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I48" t="s">
         <v>350</v>
@@ -2946,7 +2952,7 @@
         <v>348</v>
       </c>
       <c r="H50">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I50" t="s">
         <v>350</v>
@@ -2975,7 +2981,7 @@
         <v>348</v>
       </c>
       <c r="H51">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I51" t="s">
         <v>350</v>
@@ -3254,7 +3260,7 @@
         <v>348</v>
       </c>
       <c r="H60">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I60" t="s">
         <v>350</v>
@@ -3408,7 +3414,7 @@
         <v>348</v>
       </c>
       <c r="H65">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
         <v>350</v>
@@ -3437,7 +3443,7 @@
         <v>348</v>
       </c>
       <c r="H66">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I66" t="s">
         <v>350</v>
@@ -3498,7 +3504,7 @@
         <v>348</v>
       </c>
       <c r="H68">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I68" t="s">
         <v>350</v>
@@ -3524,10 +3530,10 @@
         <v>278</v>
       </c>
       <c r="G69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H69">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
         <v>350</v>
@@ -3535,6 +3541,9 @@
       <c r="J69">
         <v>119.7</v>
       </c>
+      <c r="K69">
+        <v>20220429</v>
+      </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
@@ -3620,7 +3629,7 @@
         <v>348</v>
       </c>
       <c r="H72">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s">
         <v>350</v>
@@ -3652,7 +3661,7 @@
         <v>348</v>
       </c>
       <c r="H73">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
         <v>350</v>
@@ -3780,7 +3789,7 @@
         <v>348</v>
       </c>
       <c r="H77">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I77" t="s">
         <v>350</v>
@@ -3812,7 +3821,7 @@
         <v>348</v>
       </c>
       <c r="H78">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s">
         <v>350</v>
@@ -3870,10 +3879,10 @@
         <v>282</v>
       </c>
       <c r="G80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I80" t="s">
         <v>350</v>
@@ -4001,7 +4010,7 @@
         <v>348</v>
       </c>
       <c r="H84">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="I84" t="s">
         <v>350</v>
@@ -4030,7 +4039,7 @@
         <v>348</v>
       </c>
       <c r="H85">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I85" t="s">
         <v>350</v>
@@ -4091,7 +4100,7 @@
         <v>348</v>
       </c>
       <c r="H87">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
         <v>350</v>
@@ -4309,7 +4318,7 @@
         <v>348</v>
       </c>
       <c r="H94">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I94" t="s">
         <v>350</v>
@@ -4431,10 +4440,10 @@
         <v>282</v>
       </c>
       <c r="G98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>350</v>
@@ -4442,6 +4451,9 @@
       <c r="J98">
         <v>160.95</v>
       </c>
+      <c r="K98">
+        <v>20220429</v>
+      </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
@@ -4463,7 +4475,7 @@
         <v>348</v>
       </c>
       <c r="H99">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I99" t="s">
         <v>350</v>
@@ -4492,7 +4504,7 @@
         <v>348</v>
       </c>
       <c r="H100">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
         <v>350</v>
@@ -4553,10 +4565,10 @@
         <v>242</v>
       </c>
       <c r="G102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
         <v>350</v>
@@ -4614,10 +4626,10 @@
         <v>242</v>
       </c>
       <c r="G104" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
         <v>350</v>
@@ -4710,7 +4722,7 @@
         <v>348</v>
       </c>
       <c r="H107">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I107" t="s">
         <v>350</v>
@@ -4736,10 +4748,10 @@
         <v>291</v>
       </c>
       <c r="G108" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>350</v>
@@ -4771,7 +4783,7 @@
         <v>348</v>
       </c>
       <c r="H109">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I109" t="s">
         <v>350</v>
@@ -4797,10 +4809,10 @@
         <v>291</v>
       </c>
       <c r="G110" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I110" t="s">
         <v>350</v>
@@ -5195,10 +5207,10 @@
         <v>242</v>
       </c>
       <c r="G123" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H123">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
         <v>350</v>
@@ -5206,6 +5218,9 @@
       <c r="J123">
         <v>136.8</v>
       </c>
+      <c r="K123">
+        <v>20220429</v>
+      </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
@@ -5451,7 +5466,7 @@
         <v>348</v>
       </c>
       <c r="H131">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I131" t="s">
         <v>350</v>
@@ -5509,7 +5524,7 @@
         <v>348</v>
       </c>
       <c r="H133">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="I133" t="s">
         <v>350</v>
@@ -5570,7 +5585,7 @@
         <v>348</v>
       </c>
       <c r="H135">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I135" t="s">
         <v>350</v>
@@ -5631,7 +5646,7 @@
         <v>348</v>
       </c>
       <c r="H137">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I137" t="s">
         <v>350</v>
@@ -5689,10 +5704,10 @@
         <v>306</v>
       </c>
       <c r="G139" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I139" t="s">
         <v>350</v>
@@ -5724,7 +5739,7 @@
         <v>348</v>
       </c>
       <c r="H140">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I140" t="s">
         <v>350</v>
@@ -5878,7 +5893,7 @@
         <v>348</v>
       </c>
       <c r="H145">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I145" t="s">
         <v>350</v>
@@ -5904,10 +5919,10 @@
         <v>243</v>
       </c>
       <c r="G146" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H146">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
         <v>350</v>
@@ -5915,6 +5930,9 @@
       <c r="J146">
         <v>64.31</v>
       </c>
+      <c r="K146">
+        <v>20220429</v>
+      </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
@@ -5968,7 +5986,7 @@
         <v>348</v>
       </c>
       <c r="H148">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I148" t="s">
         <v>350</v>
@@ -6084,10 +6102,10 @@
         <v>243</v>
       </c>
       <c r="G152" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I152" t="s">
         <v>350</v>
@@ -6276,7 +6294,7 @@
         <v>348</v>
       </c>
       <c r="H158">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I158" t="s">
         <v>350</v>
@@ -6340,7 +6358,7 @@
         <v>348</v>
       </c>
       <c r="H160">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I160" t="s">
         <v>350</v>
@@ -6369,7 +6387,7 @@
         <v>348</v>
       </c>
       <c r="H161">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I161" t="s">
         <v>350</v>
@@ -6526,7 +6544,7 @@
         <v>348</v>
       </c>
       <c r="H166">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I166" t="s">
         <v>350</v>
@@ -6936,10 +6954,10 @@
         <v>321</v>
       </c>
       <c r="G179" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H179">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
         <v>350</v>
@@ -6997,10 +7015,10 @@
         <v>242</v>
       </c>
       <c r="G181" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I181" t="s">
         <v>350</v>
@@ -7061,7 +7079,7 @@
         <v>348</v>
       </c>
       <c r="H183">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I183" t="s">
         <v>350</v>
@@ -7122,7 +7140,7 @@
         <v>348</v>
       </c>
       <c r="H185">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I185" t="s">
         <v>350</v>
@@ -7151,10 +7169,10 @@
         <v>316</v>
       </c>
       <c r="G186" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I186" t="s">
         <v>350</v>
@@ -7247,7 +7265,7 @@
         <v>348</v>
       </c>
       <c r="H189">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I189" t="s">
         <v>350</v>
@@ -7305,7 +7323,7 @@
         <v>348</v>
       </c>
       <c r="H191">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I191" t="s">
         <v>350</v>
@@ -7683,7 +7701,7 @@
         <v>348</v>
       </c>
       <c r="H203">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I203" t="s">
         <v>350</v>
@@ -7988,10 +8006,10 @@
         <v>337</v>
       </c>
       <c r="G213" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I213" t="s">
         <v>350</v>
@@ -8023,7 +8041,7 @@
         <v>348</v>
       </c>
       <c r="H214">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I214" t="s">
         <v>350</v>
@@ -8084,7 +8102,7 @@
         <v>348</v>
       </c>
       <c r="H216">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I216" t="s">
         <v>350</v>
